--- a/testdata/login.xlsx
+++ b/testdata/login.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>username</t>
   </si>
@@ -40,31 +40,35 @@
     <t>automation123!</t>
   </si>
   <si>
-    <t>Product Info</t>
-  </si>
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Product Weight</t>
-  </si>
-  <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>Laptop</t>
+    <t>testautomation1</t>
+  </si>
+  <si>
+    <t>testautomation2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -91,11 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -376,23 +379,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -404,9 +406,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -414,37 +419,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A3:XFD3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -454,7 +432,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/testdata/login.xlsx
+++ b/testdata/login.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>username</t>
   </si>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t>testautomation1</t>
-  </si>
-  <si>
-    <t>testautomation2</t>
   </si>
 </sst>
 </file>
@@ -379,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,14 +408,6 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
